--- a/data/trans_camb/P16A_R-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P16A_R-Clase-trans_camb.xlsx
@@ -646,7 +646,7 @@
         <v>1.960728437598352</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>3.903502127868621</v>
+        <v>3.903502127868622</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>0.2199262592905621</v>
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-2.293583983151132</v>
+        <v>-2.213532814262298</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-0.7161005513895058</v>
+        <v>-0.881254928570512</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1.053631809839156</v>
+        <v>1.015788221751819</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-4.00805690944523</v>
+        <v>-3.744536433887143</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-3.248105850995221</v>
+        <v>-3.088442103115856</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-1.903560514083501</v>
+        <v>-1.83495635546325</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-1.833397897144485</v>
+        <v>-1.981705789795162</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-0.9362879388628956</v>
+        <v>-0.6893314907144779</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.821150583399097</v>
+        <v>0.606862708461664</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>3.844334920860756</v>
+        <v>3.606145509772683</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>5.268762444425592</v>
+        <v>5.100365957864363</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>6.690318465475525</v>
+        <v>6.532808210303545</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>4.452753884247785</v>
+        <v>5.026388829585763</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>5.259861587878548</v>
+        <v>5.188247798450731</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>5.619864661271075</v>
+        <v>5.561105960930121</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>3.109831366120507</v>
+        <v>2.980985307038722</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>3.911433780961977</v>
+        <v>4.675361322922091</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>5.369070961464885</v>
+        <v>5.3964002665424</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>0.4738081587017495</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>0.943277569819517</v>
+        <v>0.9432775698195174</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>0.0303396162392482</v>
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.4220024547285392</v>
+        <v>-0.4175599050119392</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.1615559344400914</v>
+        <v>-0.1799101907030964</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.159524659273438</v>
+        <v>0.1425304700091459</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.4313977451760149</v>
+        <v>-0.4347234066703199</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.3635493254425663</v>
+        <v>-0.3373550257565837</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.1743365001249472</v>
+        <v>-0.2120065596687588</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.2882412344919712</v>
+        <v>-0.3116964336856019</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.1325880232084967</v>
+        <v>-0.1071307340251376</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>0.1095599978161519</v>
+        <v>0.07667502973607956</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>1.360151187305179</v>
+        <v>1.201276665562598</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>2.013661041918554</v>
+        <v>1.807784938000683</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>2.478130656154637</v>
+        <v>2.145251860719019</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.8449044284967695</v>
+        <v>0.9956691590436884</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.955455080746432</v>
+        <v>0.972808605728977</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.091234370158841</v>
+        <v>1.074901274112535</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.7444317877577977</v>
+        <v>0.6741867113245166</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.9186588225920347</v>
+        <v>1.171304315490182</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>1.260852275299871</v>
+        <v>1.280340552055713</v>
       </c>
     </row>
     <row r="10">
@@ -860,7 +860,7 @@
         <v>1.203407640600628</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>2.219419826645196</v>
+        <v>2.219419826645195</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>-0.02367666730012929</v>
@@ -869,7 +869,7 @@
         <v>-2.648480507737999</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>4.012370072129105</v>
+        <v>4.012370072129102</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>0.3603470461002983</v>
@@ -878,7 +878,7 @@
         <v>-0.7403363072227054</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>2.888820049502276</v>
+        <v>2.888820049502275</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-1.949359144413821</v>
+        <v>-2.091475804924616</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-2.291394149390072</v>
+        <v>-2.293542467733839</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-0.7042497359707177</v>
+        <v>-1.246412377490931</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-4.079577034000829</v>
+        <v>-4.769095247260823</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-6.448538956235446</v>
+        <v>-6.411515007393989</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-0.3507948130746011</v>
+        <v>0.1907647695308196</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-2.31750017407383</v>
+        <v>-2.260113874919543</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-3.090408457333604</v>
+        <v>-3.49402375103634</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.2882994350118799</v>
+        <v>0.4659776493348745</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>4.881475118349607</v>
+        <v>4.871862222754928</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>4.219103794812741</v>
+        <v>4.359925804462505</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>5.37911829342709</v>
+        <v>5.025138266078665</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>4.146731996401195</v>
+        <v>4.240993647330775</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>1.627795163574497</v>
+        <v>1.63191730468587</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>7.532652693245947</v>
+        <v>8.112053163036181</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>3.10512109788256</v>
+        <v>3.170597444746106</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>1.80678104844836</v>
+        <v>1.81448379955615</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>5.31548024016366</v>
+        <v>5.485061291633302</v>
       </c>
     </row>
     <row r="13">
@@ -965,7 +965,7 @@
         <v>0.2770686412425817</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>0.5109919656223177</v>
+        <v>0.5109919656223174</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>-0.002648408189762845</v>
@@ -974,7 +974,7 @@
         <v>-0.2962518912905564</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.448812901946214</v>
+        <v>0.4488129019462137</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>0.05413056747063737</v>
@@ -983,7 +983,7 @@
         <v>-0.1112117467390778</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>0.4339524086360576</v>
+        <v>0.4339524086360574</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.4140776401135773</v>
+        <v>-0.4056826013764251</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.3978928453026508</v>
+        <v>-0.4030319994636691</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.1466468757823416</v>
+        <v>-0.2175034235102613</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.3944975021052987</v>
+        <v>-0.4188513976796002</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.5769297099843105</v>
+        <v>-0.5685781300482018</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.03903139931573554</v>
+        <v>-0.002665221812301383</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.2923873015671658</v>
+        <v>-0.2836533911076605</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.3975335844134827</v>
+        <v>-0.4279793691424013</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>0.02069672119089882</v>
+        <v>0.04339065847725301</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>1.589004914858841</v>
+        <v>1.613993544004771</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>1.458239930739281</v>
+        <v>1.526304647247249</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>2.020833562349374</v>
+        <v>1.746796885340611</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.6168137129122759</v>
+        <v>0.6194451377448847</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.2537570683072353</v>
+        <v>0.2894122455347549</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.13357295752264</v>
+        <v>1.236260041996178</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.5546728117405898</v>
+        <v>0.6069664673723392</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.3225322802793142</v>
+        <v>0.3395351076659201</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.9918786692294038</v>
+        <v>1.037973659987758</v>
       </c>
     </row>
     <row r="16">
@@ -1074,7 +1074,7 @@
         <v>0.7425132769210842</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>5.106172960975154</v>
+        <v>5.106172960975153</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>5.22661714152281</v>
@@ -1092,7 +1092,7 @@
         <v>1.792478247668501</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>6.251434358540539</v>
+        <v>6.251434358540537</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>1.609641759749883</v>
+        <v>1.924823753974909</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-1.877012921171141</v>
+        <v>-2.263023901179414</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1.795501926684988</v>
+        <v>1.809816900164523</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-2.234150825390173</v>
+        <v>-2.32555176112019</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-2.997271925288671</v>
+        <v>-2.336530579890185</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-0.03881668398537006</v>
+        <v>0.8648262857673995</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>2.294685991311984</v>
+        <v>2.080208058741343</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-1.121915075167436</v>
+        <v>-1.057797355204564</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>3.246063355360741</v>
+        <v>3.179949850734928</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>7.76510588623441</v>
+        <v>7.996912802404704</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>3.672394488963882</v>
+        <v>3.271883294931189</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>8.548443202812281</v>
+        <v>8.693305744475406</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>11.69726498651729</v>
+        <v>12.24750794501185</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>12.39332844039558</v>
+        <v>13.49615969094639</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>14.05670803696218</v>
+        <v>14.43901649236837</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>8.358134058499751</v>
+        <v>8.192575209576917</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>4.702490996636908</v>
+        <v>4.479253094308921</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>9.054951233343795</v>
+        <v>9.170045542499182</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>0.1420928374069082</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>0.9771550581882817</v>
+        <v>0.9771550581882814</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>0.4115740407709856</v>
@@ -1197,7 +1197,7 @@
         <v>0.2563900152175909</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>0.8941839893470217</v>
+        <v>0.8941839893470214</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>0.232517111309728</v>
+        <v>0.2690610310197348</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.3093204620397011</v>
+        <v>-0.3541066024394428</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.2438619496256664</v>
+        <v>0.2228744865998532</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.1251797641012183</v>
+        <v>-0.1435738192441568</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.2019623603296513</v>
+        <v>-0.1691617082795786</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.007376751895468709</v>
+        <v>0.04011841208662619</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2514417563951061</v>
+        <v>0.2525877606657914</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.1336316929038447</v>
+        <v>-0.1461911619510707</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>0.3675492055340115</v>
+        <v>0.3735686517941549</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>1.902387012657721</v>
+        <v>2.110595232783366</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.8862494567946824</v>
+        <v>0.7670030997456971</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>2.118149085818014</v>
+        <v>2.144818930314522</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>1.305859211625441</v>
+        <v>1.436926836733217</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>1.351363233078485</v>
+        <v>1.409090124763011</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>1.501468094001385</v>
+        <v>1.619687816789277</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>1.448443477503938</v>
+        <v>1.457384236634757</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.8209144973192324</v>
+        <v>0.7760453268211988</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>1.633495020420622</v>
+        <v>1.558630465256156</v>
       </c>
     </row>
     <row r="22">
@@ -1288,7 +1288,7 @@
         <v>2.108025671236522</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>4.45591397579349</v>
+        <v>4.455913975793488</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>3.820368212683203</v>
@@ -1306,7 +1306,7 @@
         <v>2.851877073376388</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>5.294481652032941</v>
+        <v>5.294481652032943</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.03586733407127329</v>
+        <v>0.2833001670487757</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.1316288669092233</v>
+        <v>0.3624110113811835</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2.477297811750832</v>
+        <v>2.492047956878881</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.3220085225752359</v>
+        <v>0.443590288876345</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-0.1345682046645004</v>
+        <v>-0.02595146652858185</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>2.018242648746302</v>
+        <v>2.58264263378606</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>1.244397215593304</v>
+        <v>1.255804367568139</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>1.08354734838775</v>
+        <v>1.184383279267287</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>3.628394106696987</v>
+        <v>3.766531367771369</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>4.083507617051922</v>
+        <v>4.176903113950484</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>4.080655788570249</v>
+        <v>4.37853687557745</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>6.323144271279342</v>
+        <v>6.489738789002431</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>7.063784962074823</v>
+        <v>7.111997241032205</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>6.340854045620395</v>
+        <v>6.290907289631832</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>8.337018197662353</v>
+        <v>8.312969798451661</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>4.894194754413888</v>
+        <v>4.7916318686196</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>4.646289960634737</v>
+        <v>4.634726893839804</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>6.975668849557922</v>
+        <v>7.016103092825182</v>
       </c>
     </row>
     <row r="25">
@@ -1393,7 +1393,7 @@
         <v>0.4285868967854142</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>0.905940743173148</v>
+        <v>0.9059407431731478</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>0.3882182029190818</v>
@@ -1411,7 +1411,7 @@
         <v>0.4244406328811302</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>0.787969847699607</v>
+        <v>0.7879698476996071</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.002952159103556161</v>
+        <v>0.02008311223203021</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.008127890861757305</v>
+        <v>0.05399222112920377</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.3831249341988135</v>
+        <v>0.4389137435479064</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.02506941861517385</v>
+        <v>0.03222404504924827</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.01766432286573232</v>
+        <v>-0.02446548883293482</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1836521118185686</v>
+        <v>0.2294579883861597</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.16297150393392</v>
+        <v>0.1671863470944832</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.1469524497569815</v>
+        <v>0.1555263162621529</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.4710662832042978</v>
+        <v>0.4912869145774372</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.9679871763979331</v>
+        <v>0.9757697109217285</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.9810679090545337</v>
+        <v>1.000725131428811</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>1.514680005762947</v>
+        <v>1.566966472972763</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.8639995825335073</v>
+        <v>0.8608232059112255</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.7541039557986655</v>
+        <v>0.7660227882493696</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>1.047676098111125</v>
+        <v>1.016267938209125</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.8175462006716245</v>
+        <v>0.8125855341423247</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.7813129967486339</v>
+        <v>0.7660739620559551</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>1.203299463221272</v>
+        <v>1.215107254000301</v>
       </c>
     </row>
     <row r="28">
@@ -1520,7 +1520,7 @@
         <v>4.491555596983826</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>7.67903126287437</v>
+        <v>7.679031262874367</v>
       </c>
     </row>
     <row r="29">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-4.884734844308601</v>
+        <v>-4.733149763810475</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-3.192589593254673</v>
+        <v>-3.04444848983549</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-0.8564845791770952</v>
+        <v>-0.9460701620684264</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>2.770878691161554</v>
+        <v>2.61632435843165</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>4.283769207104098</v>
+        <v>4.518057748635045</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>7.701355858357259</v>
+        <v>7.543850081172209</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.4587130913317352</v>
+        <v>0.3615621001944851</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>1.693084816090234</v>
+        <v>1.803510435187402</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>4.771239396712029</v>
+        <v>4.995552292780948</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>2.05045989446029</v>
+        <v>2.012416026388736</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>3.915920741747026</v>
+        <v>4.162100315784411</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>6.845508837774849</v>
+        <v>6.669766913861507</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>10.62839379428952</v>
+        <v>10.69997172387862</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>13.06073395394204</v>
+        <v>12.84900717356208</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>14.99324109631725</v>
+        <v>14.95824316854493</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>6.142723775486692</v>
+        <v>6.033632410333833</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>7.293965186970556</v>
+        <v>7.582791939215452</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>10.17230777566343</v>
+        <v>10.64289149449004</v>
       </c>
     </row>
     <row r="31">
@@ -1616,7 +1616,7 @@
         <v>0.6615411370582993</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.8549794960423657</v>
+        <v>0.8549794960423652</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>0.3079051042398018</v>
@@ -1625,7 +1625,7 @@
         <v>0.4102648869341717</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>0.7014133132277617</v>
+        <v>0.7014133132277615</v>
       </c>
     </row>
     <row r="32">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.5102309808807886</v>
+        <v>-0.5177311960227219</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.3326177305130798</v>
+        <v>-0.3142884512116644</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.09963129562253729</v>
+        <v>-0.1034804235776863</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0.1762122331134598</v>
+        <v>0.1729133396123305</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.2691533778389245</v>
+        <v>0.2792988693493842</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.486049625521259</v>
+        <v>0.4790556226255211</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.03560157722583975</v>
+        <v>0.02929435886713461</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>0.1263016339962595</v>
+        <v>0.1353169918221167</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>0.3681680669587314</v>
+        <v>0.3918106954562778</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.404459190920625</v>
+        <v>0.4026519047030959</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.7729675049771784</v>
+        <v>0.7897223763155324</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>1.285961357203265</v>
+        <v>1.298304127300438</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.9769206121127606</v>
+        <v>0.9725750639326893</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>1.169405031517295</v>
+        <v>1.144763969141594</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>1.363306538938672</v>
+        <v>1.365628621328902</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.6662881342265849</v>
+        <v>0.6693043743654086</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.7653283930615167</v>
+        <v>0.8177706961767529</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>1.069586833401964</v>
+        <v>1.169220461839221</v>
       </c>
     </row>
     <row r="34">
@@ -1725,7 +1725,7 @@
         <v>4.906162564726797</v>
       </c>
       <c r="H34" s="5" t="n">
-        <v>7.368467529830401</v>
+        <v>7.36846752983041</v>
       </c>
       <c r="I34" s="5" t="n">
         <v>4.198093847269504</v>
@@ -1734,7 +1734,7 @@
         <v>3.370839114692409</v>
       </c>
       <c r="K34" s="5" t="n">
-        <v>6.032557710059175</v>
+        <v>6.032557710059177</v>
       </c>
     </row>
     <row r="35">
@@ -1745,31 +1745,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-4.011920693940597</v>
+        <v>-3.887706618134306</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-4.770222694119219</v>
+        <v>-4.41450460139952</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-1.431913702246402</v>
+        <v>-1.588862536671723</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>2.247467436513451</v>
+        <v>2.360804457682168</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>1.842582138687694</v>
+        <v>2.14589077092983</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>4.274271301422798</v>
+        <v>4.477895460276764</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>1.706421208395194</v>
+        <v>1.744676928578968</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>0.9429742842268503</v>
+        <v>1.069717543180364</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>3.377449323728227</v>
+        <v>3.387626204657135</v>
       </c>
     </row>
     <row r="36">
@@ -1780,31 +1780,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>1.873989776994883</v>
+        <v>2.303350575240745</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>0.7475363862649467</v>
+        <v>0.8961539564315372</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>7.722578717633074</v>
+        <v>7.840864771586173</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>8.18255354643796</v>
+        <v>8.338250918539938</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>7.96312421350966</v>
+        <v>8.176457711863227</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>10.36923110190613</v>
+        <v>10.39950410077006</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>6.846028315846629</v>
+        <v>6.883392744787967</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>6.175307865637538</v>
+        <v>6.374574862254166</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>8.752062040373046</v>
+        <v>8.833327136815672</v>
       </c>
     </row>
     <row r="37">
@@ -1821,7 +1821,7 @@
         <v>-0.4898941139216106</v>
       </c>
       <c r="E37" s="6" t="n">
-        <v>0.6783237434978325</v>
+        <v>0.6783237434978328</v>
       </c>
       <c r="F37" s="6" t="n">
         <v>0.4421187124822223</v>
@@ -1830,7 +1830,7 @@
         <v>0.3980689536172975</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.5978518079386054</v>
+        <v>0.597851807938606</v>
       </c>
       <c r="I37" s="6" t="n">
         <v>0.3953982538092551</v>
@@ -1839,7 +1839,7 @@
         <v>0.3174831121720159</v>
       </c>
       <c r="K37" s="6" t="n">
-        <v>0.5681775756662427</v>
+        <v>0.5681775756662429</v>
       </c>
     </row>
     <row r="38">
@@ -1850,31 +1850,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.8295600945722001</v>
+        <v>-0.7774647815984895</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.8826744976918881</v>
+        <v>-0.8363219103972007</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.3984156342942956</v>
+        <v>-0.38712349037675</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>0.1608430189840223</v>
+        <v>0.1810815478497358</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>0.1332342335151162</v>
+        <v>0.1483327396453888</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.3141984213064725</v>
+        <v>0.3447076604649861</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.1400370489679141</v>
+        <v>0.1541029576151579</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>0.08054684705762288</v>
+        <v>0.09183653037190903</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>0.2764274529201025</v>
+        <v>0.278320201675098</v>
       </c>
     </row>
     <row r="39">
@@ -1885,31 +1885,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>1.08941203253692</v>
+        <v>1.450731299742624</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>0.7188360506770567</v>
+        <v>0.5981512764217699</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>3.494806621024561</v>
+        <v>3.900366357865429</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>0.7315730259483253</v>
+        <v>0.7514757646571261</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>0.7151140231535863</v>
+        <v>0.7305411464149227</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.9420439835166919</v>
+        <v>0.937740825775732</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.7074618329918357</v>
+        <v>0.7404550701764467</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>0.6468559732723171</v>
+        <v>0.6809826385796524</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>0.9295900946086173</v>
+        <v>0.9043389999458409</v>
       </c>
     </row>
     <row r="40">
@@ -1948,7 +1948,7 @@
         <v>2.766128573182316</v>
       </c>
       <c r="K40" s="5" t="n">
-        <v>5.26244022418618</v>
+        <v>5.262440224186177</v>
       </c>
     </row>
     <row r="41">
@@ -1959,31 +1959,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>0.4551198594393209</v>
+        <v>0.5114837168306365</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>0.1869861838593389</v>
+        <v>0.2412873642383813</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>2.651724132379021</v>
+        <v>2.461800722110264</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>2.70713238638636</v>
+        <v>2.688904262884084</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>2.114565376424995</v>
+        <v>2.285614040737677</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>4.8554666660177</v>
+        <v>4.96391800492451</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>2.076714754280408</v>
+        <v>2.097398647849908</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>1.723790374912058</v>
+        <v>1.734094236193147</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>4.246230757456009</v>
+        <v>4.344002165454469</v>
       </c>
     </row>
     <row r="42">
@@ -1994,31 +1994,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>2.824672004382112</v>
+        <v>2.917802868697223</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>2.500162480003385</v>
+        <v>2.413482972483511</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>5.070611734051067</v>
+        <v>4.978426490004955</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>6.007800968870039</v>
+        <v>5.857233337320221</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>5.677118115358295</v>
+        <v>5.707722600466519</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>7.886579384320614</v>
+        <v>8.091333871666713</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>4.10536869952828</v>
+        <v>4.288512176582334</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>3.819508776248473</v>
+        <v>3.844768690260393</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>6.208407086156602</v>
+        <v>6.293689084375696</v>
       </c>
     </row>
     <row r="43">
@@ -2053,7 +2053,7 @@
         <v>0.3426134021870857</v>
       </c>
       <c r="K43" s="6" t="n">
-        <v>0.6518072104437069</v>
+        <v>0.6518072104437066</v>
       </c>
     </row>
     <row r="44">
@@ -2064,31 +2064,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>0.07193452127665548</v>
+        <v>0.103892470221751</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>0.02633410703255945</v>
+        <v>0.0463206712662273</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>0.48748581243384</v>
+        <v>0.4547074589968751</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>0.2299643177609681</v>
+        <v>0.2325807870102577</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>0.1708239297978525</v>
+        <v>0.20079271067163</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.4009737750960159</v>
+        <v>0.3977153956344362</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.2429753797608759</v>
+        <v>0.2443165053853201</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>0.199133472005884</v>
+        <v>0.1966699509743778</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>0.4952197493050706</v>
+        <v>0.5035153123878681</v>
       </c>
     </row>
     <row r="45">
@@ -2099,31 +2099,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.6207239817289706</v>
+        <v>0.6587729786946954</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>0.5670865625260503</v>
+        <v>0.5516703111251584</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>1.173307441594916</v>
+        <v>1.106949167872712</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>0.5747243015996845</v>
+        <v>0.5705727896323849</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.5426726956644288</v>
+        <v>0.5497189521216179</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.765101935436402</v>
+        <v>0.7687308833154327</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.5416168500701242</v>
+        <v>0.5606545078140357</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>0.5007771067028696</v>
+        <v>0.5027713689716253</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>0.8131028618111402</v>
+        <v>0.8238368773534795</v>
       </c>
     </row>
     <row r="46">
